--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value769.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value769.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.011207961108632</v>
+        <v>-1</v>
       </c>
       <c r="B1">
-        <v>2.917490981623407</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>4.088267758532871</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.187902309542911</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.197188508143473</v>
+        <v>0.8310946822166443</v>
       </c>
     </row>
   </sheetData>
